--- a/biology/Histoire de la zoologie et de la botanique/Émile-Théophile_Blanchard/Émile-Théophile_Blanchard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Émile-Théophile_Blanchard/Émile-Théophile_Blanchard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile-Th%C3%A9ophile_Blanchard</t>
+          <t>Émile-Théophile_Blanchard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Émile-Théophile Blanchard, né à Saint-Omer (Pas-de-Calais) le 3 février 1795 et mort le 16 février 1877 à Paris 5e, est un peintre et illustrateur français, mais il a commencé sa carrière comme chirurgien militaire[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Émile-Théophile Blanchard, né à Saint-Omer (Pas-de-Calais) le 3 février 1795 et mort le 16 février 1877 à Paris 5e, est un peintre et illustrateur français, mais il a commencé sa carrière comme chirurgien militaire,.
 Il est le fils de Nicolas Blanchard et de Joseph-Mélanie Merlen. Il est le père d'Émile Blanchard, le zoologiste français.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mile-Th%C3%A9ophile_Blanchard</t>
+          <t>Émile-Théophile_Blanchard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Peintre naturaliste de fleurs et en histoire naturelle, Émile-Théophile Blanchard habite au 11 rue de la Vieille Estrapade à Paris. Il est l'élève des frères Gérard van Spaendonck (1746-1822) et Cornelis van Spaendonck (1756-1839) avec pour condisciples Antoine Chazal (1795-1854) et Adèle Riché (1791-1878).
 Il expose au Salon des artistes français de 1818.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89mile-Th%C3%A9ophile_Blanchard</t>
+          <t>Émile-Théophile_Blanchard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Collections publiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dessins
-Papillons : Danaaide eunice, Danaaide eleutho, Papillon priam, Argynne egestine, Nymphale acilia, Callimorphe requin (1822), aquarelle, Canberra, bibliothèque nationale australienne[3]</t>
+Papillons : Danaaide eunice, Danaaide eleutho, Papillon priam, Argynne egestine, Nymphale acilia, Callimorphe requin (1822), aquarelle, Canberra, bibliothèque nationale australienne</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89mile-Th%C3%A9ophile_Blanchard</t>
+          <t>Émile-Théophile_Blanchard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cuvier, Georges ; Audouin, Jean-Victor ; Doyère, Louis-Michel-François ; Milne-Edwards, Alphonse avec les illustrations de Blanchard, Emile-Théophile. Le Règne animal distribué d'après son organisation, pour servir de base à l'histoire naturelle des animaux et d'introduction à l'anatomie comparée. Les Insectes. (Fortin ; Masson et Cie à Paris, 1828). Disponible en ligne sur IRIS : Fascicule 1 et son Atlas ; Fascicule 2 et son Atlas
 Jean Baptiste Alphonse Chauffour de Boisduval, Faune entomologique de Madagascar, Bourbon et Maurice : lépidoptères, avec des notes sur les mœurs par M. Sganzin, illustré par Émile-Théophile Blanchard, Paris : Librairie Encyclopédique de Roret, 1833
